--- a/generate_cp/json_output/course_dataframe.xlsx
+++ b/generate_cp/json_output/course_dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Get started with Copilot for Microsoft 365</t>
+          <t>Generative AI Theory</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,17 +488,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Plan for a smooth transition to Microsoft Copilot for Microsoft 365, anticipating potential issues in transition.</t>
+          <t>Implement generative models using deep learning algorithms and analyse their suitability for different problem requirements.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>T1: Introduction to Copilot for Microsoft 365</t>
+          <t>T1: Fundamentals of Probability and Deep Learning</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>K1: Relevant systems and software (ACC-ICT-4004-1.1)</t>
+          <t>K1: Probability theory and statistics (e.g., latent variables, probabilistic modelling) (I)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Get started with Copilot for Microsoft 365</t>
+          <t>Generative AI Theory</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,22 +525,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Plan for a smooth transition to Microsoft Copilot for Microsoft 365, anticipating potential issues in transition.</t>
+          <t>Implement generative models using deep learning algorithms and analyse their suitability for different problem requirements.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>T1: Introduction to Copilot for Microsoft 365</t>
+          <t>T1: Fundamentals of Probability and Deep Learning</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A1: Anticipate potential issues in systems transition (ACC-ICT-4004-1.1)</t>
+          <t>K9: Deep learning theory and algorithms (e.g., GANs, VAEs, Transformers) (I)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Written Exam</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Get started with Copilot for Microsoft 365</t>
+          <t>Generative AI Theory</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,22 +562,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Plan for a smooth transition to Microsoft Copilot for Microsoft 365, anticipating potential issues in transition.</t>
+          <t>Implement generative models using deep learning algorithms and analyse their suitability for different problem requirements.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>T2: Explore the possibilities with Copilot for Microsoft 365</t>
+          <t>T1: Fundamentals of Probability and Deep Learning</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>K2: Organisation's processes (ACC-ICT-4004-1.1)</t>
+          <t>A1: Implement generative models based on existing architectures (I)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Written Exam</t>
+          <t>Practical Exam</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Get started with Copilot for Microsoft 365</t>
+          <t>Generative AI Theory</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,22 +599,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Plan for a smooth transition to Microsoft Copilot for Microsoft 365, anticipating potential issues in transition.</t>
+          <t>Implement generative models using deep learning algorithms and analyse their suitability for different problem requirements.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>T2: Explore the possibilities with Copilot for Microsoft 365</t>
+          <t>T2: Machine Learning Implementation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A2: Plan for smooth transition from the old systems to the new systems (ACC-ICT-4004-1.1)</t>
+          <t>K10: Machine learning libraries (e.g., TensorFlow, PyTorch, Keras) (I)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Written Exam</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Get started with Copilot for Microsoft 365</t>
+          <t>Generative AI Theory</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,59 +636,59 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Plan for a smooth transition to Microsoft Copilot for Microsoft 365, anticipating potential issues in transition.</t>
+          <t>Implement generative models using deep learning algorithms and analyse their suitability for different problem requirements.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>T3: Optimize and extend Copilot for Microsoft 365</t>
+          <t>T2: Machine Learning Implementation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>K2: Organisation's processes (ACC-ICT-4004-1.1)</t>
+          <t>A2: Analyse problem statements and requirements to select and implement appropriate generative models (I)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Written Exam</t>
+          <t>Practical Exam</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LU1</t>
+          <t>LU2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Get started with Copilot for Microsoft 365</t>
+          <t>Generative AI Data Preparation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LO1</t>
+          <t>LO2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Plan for a smooth transition to Microsoft Copilot for Microsoft 365, anticipating potential issues in transition.</t>
+          <t>Preprocess and transform generative datasets using embeddings and tokenisation for model readiness.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>T3: Optimize and extend Copilot for Microsoft 365</t>
+          <t>T1: Data Processing and Evaluation</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A2: Plan for smooth transition from the old systems to the new systems (ACC-ICT-4004-1.1)</t>
+          <t>K2: Common dataset formats and evaluation methodologies for generative tasks (I)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Written Exam</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Craft effective prompts for Microsoft Copilot for Microsoft 365</t>
+          <t>Generative AI Data Preparation</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -710,17 +710,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Identify the adoption of Microsoft Copilot for Microsoft 365 and plan staff training to enhance organizational processes.</t>
+          <t>Preprocess and transform generative datasets using embeddings and tokenisation for model readiness.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>T4: Summarize with Microsoft Copilot for Microsoft 365</t>
+          <t>T1: Data Processing and Evaluation</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>K3: Systems transition process (ACC-ICT-4004-1.1)</t>
+          <t>K7: Data pre-processing, de-duplication and cleaning techniques (including understanding of training data requirements for AI models, common data quality issues) (I)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Craft effective prompts for Microsoft Copilot for Microsoft 365</t>
+          <t>Generative AI Data Preparation</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -747,22 +747,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Identify the adoption of Microsoft Copilot for Microsoft 365 and plan staff training to enhance organizational processes.</t>
+          <t>Preprocess and transform generative datasets using embeddings and tokenisation for model readiness.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>T4: Summarize with Microsoft Copilot for Microsoft 365</t>
+          <t>T1: Data Processing and Evaluation</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A4: Plan for staff training any new systems and software (ACC-ICT-4004-1.1)</t>
+          <t>A5: Preprocess and prepare data for generative training (e.g., clean and format datasets, use libraries (e.g., Pandas, NumPy) for data manipulation, split data into training, validation and test sets) (I)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Practical Exam</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Craft effective prompts for Microsoft Copilot for Microsoft 365</t>
+          <t>Generative AI Data Preparation</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,17 +784,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Identify the adoption of Microsoft Copilot for Microsoft 365 and plan staff training to enhance organizational processes.</t>
+          <t>Preprocess and transform generative datasets using embeddings and tokenisation for model readiness.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>T5: Create and draft with Microsoft Copilot for Microsoft 365</t>
+          <t>T2: Data Transformation</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>K3: Systems transition process (ACC-ICT-4004-1.1)</t>
+          <t>K8: Embeddings and tokenisation (I)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Craft effective prompts for Microsoft Copilot for Microsoft 365</t>
+          <t>Generative AI Data Preparation</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -821,54 +821,54 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Identify the adoption of Microsoft Copilot for Microsoft 365 and plan staff training to enhance organizational processes.</t>
+          <t>Preprocess and transform generative datasets using embeddings and tokenisation for model readiness.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>T5: Create and draft with Microsoft Copilot for Microsoft 365</t>
+          <t>T2: Data Transformation</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>K4: Emerging technological trends such as block chain, machine learning, artificial intelligence, robotic process automation and digital currency (ACC-ICT-4004-1.1)</t>
+          <t>A5: Preprocess and prepare data for generative training (e.g., clean and format datasets, use libraries (e.g., Pandas, NumPy) for data manipulation, split data into training, validation and test sets) (I)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Written Exam</t>
+          <t>Practical Exam</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LU2</t>
+          <t>LU3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Craft effective prompts for Microsoft Copilot for Microsoft 365</t>
+          <t>Generative AI Model Training</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LO2</t>
+          <t>LO3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Identify the adoption of Microsoft Copilot for Microsoft 365 and plan staff training to enhance organizational processes.</t>
+          <t>Train generative AI models with neural optimisation techniques using benchmark datasets and performance metrics.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>T6: Edit and transform content with Microsoft Copilot for Microsoft 365</t>
+          <t>T1: Neural Network Training</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>K4: Emerging technological trends such as block chain, machine learning, artificial intelligence, robotic process automation and digital currency (ACC-ICT-4004-1.1)</t>
+          <t>K4: Optimisation techniques for training neural networks (I)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -880,111 +880,296 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LU2</t>
+          <t>LU3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Craft effective prompts for Microsoft Copilot for Microsoft 365</t>
+          <t>Generative AI Model Training</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LO2</t>
+          <t>LO3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Identify the adoption of Microsoft Copilot for Microsoft 365 and plan staff training to enhance organizational processes.</t>
+          <t>Train generative AI models with neural optimisation techniques using benchmark datasets and performance metrics.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>T6: Edit and transform content with Microsoft Copilot for Microsoft 365</t>
+          <t>T1: Neural Network Training</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A3: Identify potential opportunities to adopt emerging technologies (ACC-ICT-4004-1.1)</t>
+          <t>K5: Parallel cluster training and inference (I)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Written Exam</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LU2</t>
+          <t>LU3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Craft effective prompts for Microsoft Copilot for Microsoft 365</t>
+          <t>Generative AI Model Training</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LO2</t>
+          <t>LO3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Identify the adoption of Microsoft Copilot for Microsoft 365 and plan staff training to enhance organizational processes.</t>
+          <t>Train generative AI models with neural optimisation techniques using benchmark datasets and performance metrics.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>T7: Ask questions and analyze content with Microsoft Copilot for Microsoft 365</t>
+          <t>T1: Neural Network Training</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>K4: Emerging technological trends such as block chain, machine learning, artificial intelligence, robotic process automation and digital currency (ACC-ICT-4004-1.1)</t>
+          <t>A3: Train generative models on benchmark datasets (I)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Written Exam</t>
+          <t>Practical Exam</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU2</t>
+          <t>LU3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Craft effective prompts for Microsoft Copilot for Microsoft 365</t>
+          <t>Generative AI Model Training</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LO2</t>
+          <t>LO3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Identify the adoption of Microsoft Copilot for Microsoft 365 and plan staff training to enhance organizational processes.</t>
+          <t>Train generative AI models with neural optimisation techniques using benchmark datasets and performance metrics.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>T7: Ask questions and analyze content with Microsoft Copilot for Microsoft 365</t>
+          <t>T2: Model Evaluation</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A3: Identify potential opportunities to adopt emerging technologies (ACC-ICT-4004-1.1)</t>
+          <t>K6: Loss functions and evaluation metrics for generative tasks (I)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Written Exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LU3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Generative AI Model Training</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LO3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Train generative AI models with neural optimisation techniques using benchmark datasets and performance metrics.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>T2: Model Evaluation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A3: Train generative models on benchmark datasets (I)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Practical Exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LU4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Generative AI Model Fine Tuning</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LO4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Identify model weaknesses through evaluation and propose targeted fine-tuning strategies for improvement.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>T1: Fine-tuning Strategies</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>K3: Fine-tuning techniques (e.g., supervised fine-tuning, parameter-efficient fine-tuning, perform inference) (I)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Written Exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Generative AI Model Fine Tuning</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LO4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Identify model weaknesses through evaluation and propose targeted fine-tuning strategies for improvement.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>T1: Fine-tuning Strategies</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A4: Identify limitations and propose initial improvements to models (I)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Practical Exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Generative AI Model Fine Tuning</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LO4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Identify model weaknesses through evaluation and propose targeted fine-tuning strategies for improvement.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>T2: Model Improvement</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>K3: Fine-tuning techniques (e.g., supervised fine-tuning, parameter-efficient fine-tuning, perform inference) (I)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Written Exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LU4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Generative AI Model Fine Tuning</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LO4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Identify model weaknesses through evaluation and propose targeted fine-tuning strategies for improvement.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>T2: Model Improvement</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A4: Identify limitations and propose initial improvements to models (I)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Practical Exam</t>
         </is>
       </c>
     </row>
